--- a/Informe_Ciberataques_Q1_2025_con_estado.xlsx
+++ b/Informe_Ciberataques_Q1_2025_con_estado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Documentos\GitHub\security-dashboard-shiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3CBE61-7438-4A3F-A4BD-2B0C797A40AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE9DAAE-ECBE-43E9-B5A0-0E0D15E5341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,13 +193,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -208,6 +207,30 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -237,30 +260,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -275,22 +274,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{312392C4-89EE-415C-999F-F672B6A08CC8}" name="Tabla2" displayName="Tabla2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:F21" xr:uid="{312392C4-89EE-415C-999F-F672B6A08CC8}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="cerrado"/>
-        <filter val="en curso"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{312392C4-89EE-415C-999F-F672B6A08CC8}" name="Tabla2" displayName="Tabla2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:F21" xr:uid="{312392C4-89EE-415C-999F-F672B6A08CC8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3066030E-A621-4A80-9ABE-453EF1BBD801}" name="ID"/>
     <tableColumn id="2" xr3:uid="{3838B688-37BD-4AC2-8F37-26E539A6591B}" name="Categoría"/>
     <tableColumn id="3" xr3:uid="{8833E3FE-07E6-470F-A806-B2BE049DB2CB}" name="Descripción del intento de ataque"/>
-    <tableColumn id="4" xr3:uid="{D0495F7F-E90F-4496-9BE3-401A338ECBEA}" name="Nivel de Impacto" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9BB74389-173D-4F19-AF54-904347C85693}" name="Fecha de Detección" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E5F49E95-505A-46AF-A0D8-7FF084E7153D}" name="Estado de Resolución" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D0495F7F-E90F-4496-9BE3-401A338ECBEA}" name="Nivel de Impacto" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9BB74389-173D-4F19-AF54-904347C85693}" name="Fecha de Detección" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{E5F49E95-505A-46AF-A0D8-7FF084E7153D}" name="Estado de Resolución" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,7 +578,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,22 +591,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -628,17 +620,17 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>45681</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -648,17 +640,17 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>45713</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -668,13 +660,13 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>45739</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -688,13 +680,13 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>45706</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -708,13 +700,13 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>45685</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -728,13 +720,13 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>45736</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -748,13 +740,13 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>45714</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -768,17 +760,17 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>45694</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -788,13 +780,13 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>45670</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -808,13 +800,13 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>45746</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -828,13 +820,13 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>45663</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -848,13 +840,13 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>45730</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -868,13 +860,13 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>45680</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -888,17 +880,17 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>45734</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -908,17 +900,17 @@
       <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>45747</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -928,13 +920,13 @@
       <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>45690</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -948,17 +940,17 @@
       <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>45667</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -968,13 +960,13 @@
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>45696</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -988,17 +980,17 @@
       <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>45741</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1008,13 +1000,13 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>45725</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>35</v>
       </c>
     </row>
